--- a/data/books.xlsx
+++ b/data/books.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-01-29T05:53:41.715508</t>
+          <t>2025-02-14T02:59:25.692790</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-01-29T05:53:41.718562</t>
+          <t>2025-02-14T02:59:25.695764</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-01-29T05:53:41.721251</t>
+          <t>2025-02-14T02:59:25.697850</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-01-29T05:53:41.723712</t>
+          <t>2025-02-14T02:59:25.700004</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-01-29T05:53:41.726110</t>
+          <t>2025-02-14T02:59:25.703176</t>
         </is>
       </c>
     </row>
